--- a/grupos/2AEV - Estadisticos 20242.xlsx
+++ b/grupos/2AEV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="138">
   <si>
     <t>Materia</t>
   </si>
@@ -272,51 +272,45 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>PELLICO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>CAMACHO</t>
+  </si>
+  <si>
     <t>CERON</t>
   </si>
   <si>
-    <t>CHICO</t>
-  </si>
-  <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>PELLICO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>CAMACHO</t>
-  </si>
-  <si>
     <t>DORANTES</t>
   </si>
   <si>
     <t>LEON</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
     <t>OFICIAL</t>
   </si>
   <si>
@@ -341,51 +335,42 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
     <t>ARZATE</t>
   </si>
   <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>MEZA</t>
-  </si>
-  <si>
     <t>PORRAS</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
     <t>VALLEJOS</t>
   </si>
   <si>
-    <t>TLATEMOHUE</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
     <t>VICTOR YAEL</t>
   </si>
   <si>
@@ -410,52 +395,43 @@
     <t>SERGIO GISELL</t>
   </si>
   <si>
+    <t>YARETH</t>
+  </si>
+  <si>
+    <t>GONZALO</t>
+  </si>
+  <si>
+    <t>JOSE ABEL</t>
+  </si>
+  <si>
+    <t>MIRANDA ALIZEET</t>
+  </si>
+  <si>
+    <t>LUIS ROBERTO</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO</t>
+  </si>
+  <si>
+    <t>ALEXANDRO</t>
+  </si>
+  <si>
     <t>LEVI SANTIAGO</t>
   </si>
   <si>
-    <t>YARETH</t>
-  </si>
-  <si>
     <t>OMAR EMILIANO</t>
   </si>
   <si>
-    <t>GONZALO</t>
-  </si>
-  <si>
-    <t>JOSE ABEL</t>
-  </si>
-  <si>
-    <t>MIRANDA ALIZEET</t>
-  </si>
-  <si>
-    <t>LUIS ROBERTO</t>
-  </si>
-  <si>
-    <t>CARLOS ANTONIO</t>
-  </si>
-  <si>
-    <t>ALEXANDRO</t>
-  </si>
-  <si>
     <t>ROBERTO</t>
   </si>
   <si>
     <t>BRAYAN</t>
   </si>
   <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>KEVIN ZAID</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>YOSGART</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>EDILBERTO</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +983,10 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>7</v>
@@ -1055,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="AA4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC4">
         <v>7</v>
@@ -1108,10 +1084,10 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -1209,10 +1185,10 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -1260,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="AB6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC6">
         <v>5</v>
@@ -1310,10 +1286,10 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -1411,10 +1387,10 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1512,10 +1488,10 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1563,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="AB9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC9">
         <v>6</v>
@@ -1613,10 +1589,10 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -1661,10 +1637,10 @@
         <v>5</v>
       </c>
       <c r="AA10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC10">
         <v>7</v>
@@ -1714,10 +1690,10 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>6</v>
@@ -1815,10 +1791,10 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M12">
         <v>9</v>
@@ -1863,10 +1839,10 @@
         <v>7</v>
       </c>
       <c r="AA12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC12">
         <v>9</v>
@@ -1916,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>9</v>
@@ -1964,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="AA13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB13">
         <v>8</v>
@@ -2017,10 +1993,10 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <v>9</v>
@@ -2065,10 +2041,10 @@
         <v>8</v>
       </c>
       <c r="AA14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC14">
         <v>8</v>
@@ -2118,10 +2094,10 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <v>9</v>
@@ -2166,10 +2142,10 @@
         <v>8</v>
       </c>
       <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
         <v>9</v>
-      </c>
-      <c r="AB15">
-        <v>10</v>
       </c>
       <c r="AC15">
         <v>9</v>
@@ -2219,10 +2195,10 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>9</v>
@@ -2320,10 +2296,10 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>7</v>
@@ -2418,7 +2394,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -2460,7 +2436,7 @@
         <v>7</v>
       </c>
       <c r="AA18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC18">
         <v>6</v>
@@ -2510,10 +2486,10 @@
         <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -2611,10 +2587,10 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M20">
         <v>9</v>
@@ -2659,7 +2635,7 @@
         <v>6</v>
       </c>
       <c r="AA20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB20">
         <v>10</v>
@@ -2712,10 +2688,10 @@
         <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M21">
         <v>9</v>
@@ -2813,10 +2789,10 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22">
         <v>8</v>
@@ -2861,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="AA22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB22">
         <v>10</v>
@@ -2914,10 +2890,10 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>8</v>
@@ -2962,10 +2938,10 @@
         <v>7</v>
       </c>
       <c r="AA23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC23">
         <v>8</v>
@@ -3015,10 +2991,10 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>6</v>
@@ -3116,10 +3092,10 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>9</v>
@@ -3164,10 +3140,10 @@
         <v>6</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC25">
         <v>8</v>
@@ -3217,10 +3193,10 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M26">
         <v>8</v>
@@ -3318,10 +3294,10 @@
         <v>9</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M27">
         <v>9</v>
@@ -3366,7 +3342,7 @@
         <v>8</v>
       </c>
       <c r="AA27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB27">
         <v>10</v>
@@ -3419,10 +3395,10 @@
         <v>6</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>8</v>
@@ -3520,10 +3496,10 @@
         <v>7</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M29">
         <v>7</v>
@@ -3568,10 +3544,10 @@
         <v>7</v>
       </c>
       <c r="AA29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC29">
         <v>7</v>
@@ -3621,10 +3597,10 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -3672,7 +3648,7 @@
         <v>5</v>
       </c>
       <c r="AB30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC30">
         <v>7</v>
@@ -3722,10 +3698,10 @@
         <v>7</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -3770,10 +3746,10 @@
         <v>7</v>
       </c>
       <c r="AA31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC31">
         <v>6</v>
@@ -3823,10 +3799,10 @@
         <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>6</v>
@@ -3874,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="AB32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC32">
         <v>5</v>
@@ -3924,10 +3900,10 @@
         <v>6</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M33">
         <v>6</v>
@@ -4025,10 +4001,10 @@
         <v>6</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M34">
         <v>6</v>
@@ -4076,7 +4052,7 @@
         <v>5</v>
       </c>
       <c r="AB34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC34">
         <v>5</v>
@@ -4126,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>7</v>
@@ -4227,10 +4203,10 @@
         <v>6</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>7</v>
@@ -4328,10 +4304,10 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M37">
         <v>7</v>
@@ -4376,10 +4352,10 @@
         <v>5</v>
       </c>
       <c r="AA37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC37">
         <v>6</v>
@@ -4429,10 +4405,10 @@
         <v>6</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <v>6</v>
@@ -4530,10 +4506,10 @@
         <v>8</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M39">
         <v>9</v>
@@ -4578,10 +4554,10 @@
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC39">
         <v>9</v>
@@ -4768,7 +4744,7 @@
         <v>95</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -4792,7 +4768,7 @@
         <v>95</v>
       </c>
       <c r="S4">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="T4">
         <v>100</v>
@@ -4845,7 +4821,7 @@
         <v>90</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -4869,7 +4845,7 @@
         <v>90</v>
       </c>
       <c r="S5">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="T5">
         <v>100</v>
@@ -4922,7 +4898,7 @@
         <v>90</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -4946,7 +4922,7 @@
         <v>90</v>
       </c>
       <c r="S6">
-        <v>100</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="T6">
         <v>100</v>
@@ -4999,7 +4975,7 @@
         <v>95</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -5023,7 +4999,7 @@
         <v>95</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="T7">
         <v>100</v>
@@ -5076,7 +5052,7 @@
         <v>85</v>
       </c>
       <c r="K8">
-        <v>95.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -5100,7 +5076,7 @@
         <v>85</v>
       </c>
       <c r="S8">
-        <v>95.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="T8">
         <v>100</v>
@@ -5230,10 +5206,10 @@
         <v>95</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="L10">
-        <v>83.3</v>
+        <v>92.3</v>
       </c>
       <c r="M10">
         <v>89.7</v>
@@ -5254,10 +5230,10 @@
         <v>95</v>
       </c>
       <c r="S10">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="T10">
-        <v>83.3</v>
+        <v>92.3</v>
       </c>
       <c r="U10">
         <v>89.7</v>
@@ -5307,7 +5283,7 @@
         <v>85</v>
       </c>
       <c r="K11">
-        <v>95.2</v>
+        <v>86</v>
       </c>
       <c r="L11">
         <v>100</v>
@@ -5331,7 +5307,7 @@
         <v>85</v>
       </c>
       <c r="S11">
-        <v>95.2</v>
+        <v>86</v>
       </c>
       <c r="T11">
         <v>100</v>
@@ -5692,7 +5668,7 @@
         <v>85</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -5716,7 +5692,7 @@
         <v>85</v>
       </c>
       <c r="S16">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="T16">
         <v>100</v>
@@ -5769,10 +5745,10 @@
         <v>85</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>90.7</v>
       </c>
       <c r="L17">
-        <v>66.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="M17">
         <v>86.2</v>
@@ -5793,10 +5769,10 @@
         <v>85</v>
       </c>
       <c r="S17">
-        <v>100</v>
+        <v>90.7</v>
       </c>
       <c r="T17">
-        <v>66.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="U17">
         <v>86.2</v>
@@ -5914,7 +5890,7 @@
         <v>85</v>
       </c>
       <c r="K19">
-        <v>90.5</v>
+        <v>83.7</v>
       </c>
       <c r="L19">
         <v>100</v>
@@ -5938,7 +5914,7 @@
         <v>85</v>
       </c>
       <c r="S19">
-        <v>90.5</v>
+        <v>83.7</v>
       </c>
       <c r="T19">
         <v>100</v>
@@ -6068,7 +6044,7 @@
         <v>95</v>
       </c>
       <c r="K21">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="L21">
         <v>100</v>
@@ -6092,7 +6068,7 @@
         <v>95</v>
       </c>
       <c r="S21">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="T21">
         <v>100</v>
@@ -6222,7 +6198,7 @@
         <v>100</v>
       </c>
       <c r="K23">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -6246,7 +6222,7 @@
         <v>100</v>
       </c>
       <c r="S23">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="T23">
         <v>100</v>
@@ -6299,7 +6275,7 @@
         <v>90</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -6323,7 +6299,7 @@
         <v>90</v>
       </c>
       <c r="S24">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="T24">
         <v>100</v>
@@ -6376,7 +6352,7 @@
         <v>95</v>
       </c>
       <c r="K25">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="L25">
         <v>100</v>
@@ -6400,7 +6376,7 @@
         <v>95</v>
       </c>
       <c r="S25">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="T25">
         <v>100</v>
@@ -6453,7 +6429,7 @@
         <v>95</v>
       </c>
       <c r="K26">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="L26">
         <v>100</v>
@@ -6477,7 +6453,7 @@
         <v>95</v>
       </c>
       <c r="S26">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="T26">
         <v>100</v>
@@ -6607,7 +6583,7 @@
         <v>85</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L28">
         <v>100</v>
@@ -6631,7 +6607,7 @@
         <v>85</v>
       </c>
       <c r="S28">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="T28">
         <v>100</v>
@@ -6761,10 +6737,10 @@
         <v>85</v>
       </c>
       <c r="K30">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="L30">
-        <v>83.3</v>
+        <v>92.3</v>
       </c>
       <c r="M30">
         <v>89.7</v>
@@ -6785,10 +6761,10 @@
         <v>85</v>
       </c>
       <c r="S30">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="T30">
-        <v>83.3</v>
+        <v>92.3</v>
       </c>
       <c r="U30">
         <v>89.7</v>
@@ -6838,7 +6814,7 @@
         <v>85</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="L31">
         <v>100</v>
@@ -6862,7 +6838,7 @@
         <v>85</v>
       </c>
       <c r="S31">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="T31">
         <v>100</v>
@@ -6915,7 +6891,7 @@
         <v>95</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L32">
         <v>100</v>
@@ -6939,7 +6915,7 @@
         <v>95</v>
       </c>
       <c r="S32">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="T32">
         <v>100</v>
@@ -6992,7 +6968,7 @@
         <v>85</v>
       </c>
       <c r="K33">
-        <v>95.2</v>
+        <v>90.7</v>
       </c>
       <c r="L33">
         <v>100</v>
@@ -7016,7 +6992,7 @@
         <v>85</v>
       </c>
       <c r="S33">
-        <v>95.2</v>
+        <v>90.7</v>
       </c>
       <c r="T33">
         <v>100</v>
@@ -7069,7 +7045,7 @@
         <v>95</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L34">
         <v>100</v>
@@ -7093,7 +7069,7 @@
         <v>95</v>
       </c>
       <c r="S34">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="T34">
         <v>100</v>
@@ -7146,7 +7122,7 @@
         <v>85</v>
       </c>
       <c r="K35">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="L35">
         <v>100</v>
@@ -7170,7 +7146,7 @@
         <v>85</v>
       </c>
       <c r="S35">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="T35">
         <v>100</v>
@@ -7300,7 +7276,7 @@
         <v>85</v>
       </c>
       <c r="K37">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="L37">
         <v>100</v>
@@ -7324,7 +7300,7 @@
         <v>85</v>
       </c>
       <c r="S37">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="T37">
         <v>100</v>
@@ -7377,10 +7353,10 @@
         <v>85</v>
       </c>
       <c r="K38">
-        <v>100</v>
+        <v>90.7</v>
       </c>
       <c r="L38">
-        <v>83.3</v>
+        <v>92.3</v>
       </c>
       <c r="M38">
         <v>86.2</v>
@@ -7401,10 +7377,10 @@
         <v>85</v>
       </c>
       <c r="S38">
-        <v>100</v>
+        <v>90.7</v>
       </c>
       <c r="T38">
-        <v>83.3</v>
+        <v>92.3</v>
       </c>
       <c r="U38">
         <v>86.2</v>
@@ -7565,19 +7541,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>30.6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
-        <v>69.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -7769,7 +7745,7 @@
         <v>2.9</v>
       </c>
       <c r="H8">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -7874,7 +7850,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7915,10 +7891,10 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -7938,10 +7914,10 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -7961,10 +7937,10 @@
         <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -7984,10 +7960,10 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -8007,10 +7983,10 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -8030,10 +8006,10 @@
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -8053,10 +8029,10 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -8076,10 +8052,10 @@
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -8099,10 +8075,10 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -8122,10 +8098,10 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -8145,10 +8121,10 @@
         <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -8168,10 +8144,10 @@
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -8191,10 +8167,10 @@
         <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -8214,10 +8190,10 @@
         <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -8237,10 +8213,10 @@
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -8260,10 +8236,10 @@
         <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -8283,10 +8259,10 @@
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -8306,10 +8282,10 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -8329,10 +8305,10 @@
         <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -8352,10 +8328,10 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -8375,10 +8351,10 @@
         <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -8398,10 +8374,10 @@
         <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -8421,10 +8397,10 @@
         <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -8444,10 +8420,10 @@
         <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -8467,10 +8443,10 @@
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -8490,10 +8466,10 @@
         <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -8513,10 +8489,10 @@
         <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -8536,10 +8512,10 @@
         <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -8559,10 +8535,10 @@
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -8582,10 +8558,10 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -8599,22 +8575,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>24330051920392</v>
+        <v>24330051920098</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -8622,22 +8598,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>24330051920392</v>
+        <v>24330051920098</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -8645,22 +8621,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>24330051920392</v>
+        <v>24330051920098</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -8668,22 +8644,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>24330051920098</v>
+        <v>23330051920036</v>
       </c>
       <c r="B35" t="s">
         <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -8691,22 +8667,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>24330051920098</v>
+        <v>23330051920036</v>
       </c>
       <c r="B36" t="s">
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -8714,16 +8690,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>24330051920098</v>
+        <v>23330051920036</v>
       </c>
       <c r="B37" t="s">
         <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -8737,22 +8713,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>24330051920401</v>
+        <v>24330051920144</v>
       </c>
       <c r="B38" t="s">
         <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -8760,22 +8736,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>24330051920401</v>
+        <v>24330051920144</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -8783,22 +8759,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>24330051920401</v>
+        <v>24330051920144</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -8806,16 +8782,16 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>23330051920036</v>
+        <v>24330051920107</v>
       </c>
       <c r="B41" t="s">
         <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -8829,22 +8805,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>23330051920036</v>
+        <v>24330051920107</v>
       </c>
       <c r="B42" t="s">
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -8852,22 +8828,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>23330051920036</v>
+        <v>24330051920107</v>
       </c>
       <c r="B43" t="s">
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -8875,22 +8851,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>24330051920144</v>
+        <v>24330051920306</v>
       </c>
       <c r="B44" t="s">
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -8898,22 +8874,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>24330051920144</v>
+        <v>24330051920306</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -8921,16 +8897,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>24330051920144</v>
+        <v>24330051920306</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -8944,16 +8920,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>24330051920107</v>
+        <v>24330051920143</v>
       </c>
       <c r="B47" t="s">
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -8967,16 +8943,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>24330051920107</v>
+        <v>24330051920143</v>
       </c>
       <c r="B48" t="s">
         <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -8990,22 +8966,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>24330051920107</v>
+        <v>24330051920143</v>
       </c>
       <c r="B49" t="s">
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -9013,16 +8989,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>24330051920306</v>
+        <v>24330051920142</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -9036,16 +9012,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>24330051920306</v>
+        <v>24330051920142</v>
       </c>
       <c r="B51" t="s">
         <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -9059,22 +9035,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>24330051920306</v>
+        <v>24330051920392</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -9082,22 +9058,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>24330051920143</v>
+        <v>24330051920392</v>
       </c>
       <c r="B53" t="s">
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -9105,22 +9081,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>24330051920143</v>
+        <v>24330051920401</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -9128,22 +9104,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>24330051920143</v>
+        <v>24330051920401</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -9151,22 +9127,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>24330051920142</v>
+        <v>23330051920224</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -9174,22 +9150,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>24330051920142</v>
+        <v>23330051920224</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -9197,22 +9173,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>23330051920224</v>
+        <v>24330051920149</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -9220,22 +9196,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>23330051920224</v>
+        <v>24330051920149</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -9243,16 +9219,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>24330051920149</v>
+        <v>24330051920155</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
@@ -9266,185 +9242,24 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>24330051920149</v>
+        <v>24330051920300</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
         <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>24330051920300</v>
-      </c>
-      <c r="B62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>24330051920300</v>
-      </c>
-      <c r="B63" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
-        <v>24330051920127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
-        <v>24330051920155</v>
-      </c>
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
-        <v>24330051920148</v>
-      </c>
-      <c r="B66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
-        <v>24330051920106</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
-        <v>24330051920410</v>
-      </c>
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2AEV - Estadisticos 20242.xlsx
+++ b/grupos/2AEV - Estadisticos 20242.xlsx
@@ -218,7 +218,7 @@
     <t>Lopez Pacheco Judith Gabriela</t>
   </si>
   <si>
-    <t>Ameca Garcia Ivan</t>
+    <t>Avila Coronado Julieta</t>
   </si>
   <si>
     <t>Silva Villegas Mario</t>
